--- a/analysis/mails_01/P19_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P19_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,13 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
-    <t xml:space="preserve">subterranean </t>
+    <t xml:space="preserve">55.3281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subterranean</t>
   </si>
   <si>
     <t xml:space="preserve">6200</t>
@@ -546,206 +552,206 @@
         <v>15</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>55.3281</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.7621</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="n">
-        <v>55.3281</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.7621</v>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" t="n">
-        <v>55.3281</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8.7621</v>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="n">
-        <v>55.3281</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.7621</v>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" t="n">
-        <v>55.3281</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.7621</v>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -764,10 +770,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -791,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -799,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -815,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -823,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -831,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -839,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -847,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -855,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -863,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -871,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -879,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
